--- a/public/tmp/10-inventaris_penyusutan-all.xlsx
+++ b/public/tmp/10-inventaris_penyusutan-all.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="82">
   <si>
     <t>DAFTAR BARANG PENGGUNA/KUASA PENGGUNA/MILIK DAERAH</t>
   </si>
@@ -32,9 +32,6 @@
     <t>PENGGUNA BARANG</t>
   </si>
   <si>
-    <t>UPTD Panti Sosial Rehabilitasi Anak Berhadapan dengan Hukum</t>
-  </si>
-  <si>
     <t>KUASA PENGGUNA BARANG</t>
   </si>
   <si>
@@ -105,6 +102,156 @@
   </si>
   <si>
     <t>Nilai Perolehan</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>1.3.2.05.02.04.004/31679</t>
+  </si>
+  <si>
+    <t>001</t>
+  </si>
+  <si>
+    <t>A.C. Split</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>264</t>
+  </si>
+  <si>
+    <t>1999</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>1.3.2.05.02.01.008/31687</t>
+  </si>
+  <si>
+    <t>002</t>
+  </si>
+  <si>
+    <t>Meja Rapat</t>
+  </si>
+  <si>
+    <t>4152</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1.3.2.05.02.01.030/31681</t>
+  </si>
+  <si>
+    <t>Kursi Rapat</t>
+  </si>
+  <si>
+    <t>4151</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>1.3.2.05.02.01.030/31684</t>
+  </si>
+  <si>
+    <t>005</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>1.3.1.01.01.01.003/31691</t>
+  </si>
+  <si>
+    <t>Tanah Bangunan Rumah Negara Golongan III</t>
+  </si>
+  <si>
+    <t>1982</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>1.3.2.05.02.01.030/31683</t>
+  </si>
+  <si>
+    <t>004</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>1.3.2.05.02.01.008/31686</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>1.3.1.01.01.04.001/31692</t>
+  </si>
+  <si>
+    <t>Tanah Bangunan Kantor Pemerintah</t>
+  </si>
+  <si>
+    <t>1987</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>1.3.1.01.02.02.002/31689</t>
+  </si>
+  <si>
+    <t>Tanah Kosong Yang Sudah Diperuntukkan</t>
+  </si>
+  <si>
+    <t>1993</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>1.3.1.01.01.04.001/31688</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>1.3.2.05.02.01.030/31685</t>
+  </si>
+  <si>
+    <t>006</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>1.3.2.05.02.01.030/31682</t>
+  </si>
+  <si>
+    <t>003</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>1.3.2.05.02.01.030/31680</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>1.3.1.01.01.04.001/31690</t>
+  </si>
+  <si>
+    <t>2014</t>
   </si>
   <si>
     <t>Jumlah Harga</t>
@@ -119,7 +266,7 @@
   </si>
   <si>
     <t xml:space="preserve">
-            Bandung 25-02-2021
+            Bandung 21-05-2021
             PENGURUS BARANG
             (.................................................) 
             NIP.
@@ -188,7 +335,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -200,6 +347,12 @@
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
@@ -509,10 +662,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:S23"/>
+  <dimension ref="A1:S37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A13" sqref="A13:N13"/>
+      <selection activeCell="A27" sqref="A27:N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -561,13 +714,11 @@
       <c r="C4" t="s">
         <v>2</v>
       </c>
-      <c r="D4" t="s">
-        <v>5</v>
-      </c>
+      <c r="D4"/>
     </row>
     <row r="5" spans="1:19">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
         <v>2</v>
@@ -576,7 +727,7 @@
     </row>
     <row r="6" spans="1:19">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
         <v>2</v>
@@ -585,72 +736,72 @@
     </row>
     <row r="9" spans="1:19">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="J9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="K9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="L9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L9" s="1" t="s">
+      <c r="M9" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="N9" s="1"/>
       <c r="O9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="P9" s="1" t="s">
+      <c r="Q9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Q9" s="1" t="s">
+      <c r="R9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="R9" s="1" t="s">
+      <c r="S9" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="S9" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:19">
       <c r="A10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -658,10 +809,10 @@
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N10" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
@@ -670,159 +821,835 @@
       <c r="S10" s="1"/>
     </row>
     <row r="11" spans="1:19">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3">
-        <v>0</v>
-      </c>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
-      <c r="S11" s="3"/>
+      <c r="C11" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="5">
+        <v>7000000.0</v>
+      </c>
+      <c r="O11" s="5">
+        <v>7000000</v>
+      </c>
+      <c r="P11" s="5">
+        <v>72916.67</v>
+      </c>
+      <c r="Q11" s="5">
+        <v>7000000.0</v>
+      </c>
+      <c r="R11" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="S11" s="4"/>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="A12" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="5">
+        <v>1200000.0</v>
+      </c>
+      <c r="O12" s="5">
+        <v>1200000</v>
+      </c>
+      <c r="P12" s="5">
+        <v>12500.0</v>
+      </c>
+      <c r="Q12" s="5">
+        <v>1200000.0</v>
+      </c>
+      <c r="R12" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="S12" s="4"/>
     </row>
     <row r="13" spans="1:19">
-      <c r="A13" s="5"/>
-      <c r="B13" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
+      <c r="A13" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="5">
+        <v>1120000.0</v>
+      </c>
+      <c r="O13" s="5">
+        <v>1120000</v>
+      </c>
+      <c r="P13" s="5">
+        <v>11666.67</v>
+      </c>
+      <c r="Q13" s="5">
+        <v>1120000.0</v>
+      </c>
+      <c r="R13" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="S13" s="4"/>
     </row>
     <row r="14" spans="1:19">
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="K14" s="4"/>
+      <c r="A14" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
+      <c r="N14" s="5">
+        <v>1120000.0</v>
+      </c>
+      <c r="O14" s="5">
+        <v>1120000</v>
+      </c>
+      <c r="P14" s="5">
+        <v>11666.67</v>
+      </c>
+      <c r="Q14" s="5">
+        <v>1120000.0</v>
+      </c>
+      <c r="R14" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="S14" s="4"/>
     </row>
     <row r="15" spans="1:19">
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
+      <c r="A15" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="F15" s="4"/>
-      <c r="K15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
+      <c r="N15" s="5">
+        <v>3892560000.0</v>
+      </c>
+      <c r="O15" s="5">
+        <v>3892560000</v>
+      </c>
+      <c r="P15" s="5">
+        <v>1946280000.0</v>
+      </c>
+      <c r="Q15" s="5">
+        <v>3892560000.0</v>
+      </c>
+      <c r="R15" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="S15" s="4"/>
     </row>
     <row r="16" spans="1:19">
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="K16" s="4"/>
+      <c r="A16" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="L16" s="4"/>
       <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
+      <c r="N16" s="5">
+        <v>1120000.0</v>
+      </c>
+      <c r="O16" s="5">
+        <v>1120000</v>
+      </c>
+      <c r="P16" s="5">
+        <v>11666.67</v>
+      </c>
+      <c r="Q16" s="5">
+        <v>1120000.0</v>
+      </c>
+      <c r="R16" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="S16" s="4"/>
     </row>
     <row r="17" spans="1:19">
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="K17" s="4"/>
+      <c r="A17" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
+      <c r="N17" s="5">
+        <v>1200000.0</v>
+      </c>
+      <c r="O17" s="5">
+        <v>1200000</v>
+      </c>
+      <c r="P17" s="5">
+        <v>12500.0</v>
+      </c>
+      <c r="Q17" s="5">
+        <v>1200000.0</v>
+      </c>
+      <c r="R17" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="S17" s="4"/>
     </row>
     <row r="18" spans="1:19">
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
+      <c r="A18" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="F18" s="4"/>
-      <c r="K18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
+      <c r="N18" s="5">
+        <v>1240724000.0</v>
+      </c>
+      <c r="O18" s="5">
+        <v>1240724000</v>
+      </c>
+      <c r="P18" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="Q18" s="5">
+        <v>1240724000.0</v>
+      </c>
+      <c r="R18" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="S18" s="4"/>
     </row>
     <row r="19" spans="1:19">
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
+      <c r="A19" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="F19" s="4"/>
-      <c r="K19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
+      <c r="N19" s="5">
+        <v>340200000.0</v>
+      </c>
+      <c r="O19" s="5">
+        <v>340200000</v>
+      </c>
+      <c r="P19" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="Q19" s="5">
+        <v>340200000.0</v>
+      </c>
+      <c r="R19" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="S19" s="4"/>
     </row>
     <row r="20" spans="1:19">
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
+      <c r="A20" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="F20" s="4"/>
-      <c r="K20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="L20" s="4"/>
       <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
+      <c r="N20" s="5">
+        <v>5138640000.0</v>
+      </c>
+      <c r="O20" s="5">
+        <v>5138640000</v>
+      </c>
+      <c r="P20" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="Q20" s="5">
+        <v>5138640000.0</v>
+      </c>
+      <c r="R20" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="S20" s="4"/>
     </row>
     <row r="21" spans="1:19">
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="K21" s="4"/>
+      <c r="A21" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="L21" s="4"/>
       <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
+      <c r="N21" s="5">
+        <v>1120000.0</v>
+      </c>
+      <c r="O21" s="5">
+        <v>0</v>
+      </c>
+      <c r="P21" s="5">
+        <v>11666.67</v>
+      </c>
+      <c r="Q21" s="5">
+        <v>1120000.0</v>
+      </c>
+      <c r="R21" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="S21" s="4"/>
     </row>
     <row r="22" spans="1:19">
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="K22" s="4"/>
+      <c r="A22" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="L22" s="4"/>
       <c r="M22" s="4"/>
-      <c r="N22" s="4"/>
+      <c r="N22" s="5">
+        <v>1120000.0</v>
+      </c>
+      <c r="O22" s="5">
+        <v>1120000</v>
+      </c>
+      <c r="P22" s="5">
+        <v>11666.67</v>
+      </c>
+      <c r="Q22" s="5">
+        <v>1120000.0</v>
+      </c>
+      <c r="R22" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="S22" s="4"/>
     </row>
     <row r="23" spans="1:19">
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="K23" s="4"/>
+      <c r="A23" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="L23" s="4"/>
       <c r="M23" s="4"/>
-      <c r="N23" s="4"/>
+      <c r="N23" s="5">
+        <v>1120000.0</v>
+      </c>
+      <c r="O23" s="5">
+        <v>1120000</v>
+      </c>
+      <c r="P23" s="5">
+        <v>11666.67</v>
+      </c>
+      <c r="Q23" s="5">
+        <v>1120000.0</v>
+      </c>
+      <c r="R23" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="S23" s="4"/>
+    </row>
+    <row r="24" spans="1:19">
+      <c r="A24" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="5">
+        <v>6712500000.0</v>
+      </c>
+      <c r="O24" s="5">
+        <v>6712500000</v>
+      </c>
+      <c r="P24" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="Q24" s="5">
+        <v>6712500000.0</v>
+      </c>
+      <c r="R24" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="S24" s="4"/>
+    </row>
+    <row r="25" spans="1:19">
+      <c r="A25" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3">
+        <v>17340744000.0</v>
+      </c>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="3"/>
+      <c r="S25" s="3"/>
+    </row>
+    <row r="27" spans="1:19">
+      <c r="A27" s="7"/>
+      <c r="B27" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="8"/>
+    </row>
+    <row r="28" spans="1:19">
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="6"/>
+      <c r="N28" s="6"/>
+    </row>
+    <row r="29" spans="1:19">
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6"/>
+      <c r="N29" s="6"/>
+    </row>
+    <row r="30" spans="1:19">
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="6"/>
+      <c r="N30" s="6"/>
+    </row>
+    <row r="31" spans="1:19">
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="6"/>
+      <c r="N31" s="6"/>
+    </row>
+    <row r="32" spans="1:19">
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="6"/>
+      <c r="M32" s="6"/>
+      <c r="N32" s="6"/>
+    </row>
+    <row r="33" spans="1:19">
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="6"/>
+      <c r="N33" s="6"/>
+    </row>
+    <row r="34" spans="1:19">
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="6"/>
+      <c r="M34" s="6"/>
+      <c r="N34" s="6"/>
+    </row>
+    <row r="35" spans="1:19">
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="6"/>
+      <c r="M35" s="6"/>
+      <c r="N35" s="6"/>
+    </row>
+    <row r="36" spans="1:19">
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="6"/>
+      <c r="M36" s="6"/>
+      <c r="N36" s="6"/>
+    </row>
+    <row r="37" spans="1:19">
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="6"/>
+      <c r="M37" s="6"/>
+      <c r="N37" s="6"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
@@ -845,10 +1672,10 @@
     <mergeCell ref="R9:R10"/>
     <mergeCell ref="S9:S10"/>
     <mergeCell ref="A1:T1"/>
-    <mergeCell ref="A11:M11"/>
-    <mergeCell ref="B13:F23"/>
-    <mergeCell ref="G13:J23"/>
-    <mergeCell ref="K13:N23"/>
+    <mergeCell ref="A25:M25"/>
+    <mergeCell ref="B27:F37"/>
+    <mergeCell ref="G27:J37"/>
+    <mergeCell ref="K27:N37"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
